--- a/cocos-prog/03-tool/gj/nation.xlsx
+++ b/cocos-prog/03-tool/gj/nation.xlsx
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/cocos-prog/03-tool/gj/nation.xlsx
+++ b/cocos-prog/03-tool/gj/nation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>标题</t>
   </si>
@@ -62,19 +62,51 @@
     <t>长安</t>
   </si>
   <si>
+    <t>Chang'an</t>
+  </si>
+  <si>
+    <t>長安</t>
+  </si>
+  <si>
     <t>傲来国</t>
   </si>
   <si>
+    <t>Aolai country</t>
+  </si>
+  <si>
+    <t>傲來國</t>
+  </si>
+  <si>
     <t>灵山</t>
   </si>
   <si>
+    <t>Spiritual mountain</t>
+  </si>
+  <si>
+    <t>靈山</t>
+  </si>
+  <si>
     <t>天宫</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiangong
+</t>
+  </si>
+  <si>
+    <t>天宮</t>
+  </si>
+  <si>
     <t>地府</t>
   </si>
   <si>
+    <t>underworld</t>
+  </si>
+  <si>
     <t>火焰山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Mountain
+</t>
   </si>
 </sst>
 </file>
@@ -722,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1260,15 +1295,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="17.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="17.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1327,10 +1363,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1338,13 +1374,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1352,27 +1388,27 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1380,27 +1416,27 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="40.5" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-prog/03-tool/gj/nation.xlsx
+++ b/cocos-prog/03-tool/gj/nation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>标题</t>
   </si>
@@ -38,6 +38,12 @@
     <t>主城文件名</t>
   </si>
   <si>
+    <t>出生点位置x</t>
+  </si>
+  <si>
+    <t>出生点位置y</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t>map_name</t>
+  </si>
+  <si>
+    <t>born_x</t>
+  </si>
+  <si>
+    <t>born_y</t>
   </si>
   <si>
     <t>长安</t>
@@ -1292,19 +1304,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="17.6166666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.6153846153846" customWidth="1"/>
+    <col min="6" max="6" width="15.0576923076923" customWidth="1"/>
+    <col min="7" max="7" width="13.8461538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,123 +1334,177 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:4">
+    <row r="7" ht="34" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:4">
+    <row r="9" ht="34" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-prog/03-tool/gj/nation.xlsx
+++ b/cocos-prog/03-tool/gj/nation.xlsx
@@ -89,15 +89,6 @@
     <t>傲來國</t>
   </si>
   <si>
-    <t>灵山</t>
-  </si>
-  <si>
-    <t>Spiritual mountain</t>
-  </si>
-  <si>
-    <t>靈山</t>
-  </si>
-  <si>
     <t>天宫</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>天宮</t>
+  </si>
+  <si>
+    <t>灵山</t>
+  </si>
+  <si>
+    <t>Spiritual mountain</t>
+  </si>
+  <si>
+    <t>靈山</t>
   </si>
   <si>
     <t>地府</t>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1427,14 +1427,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="34" spans="1:7">
       <c r="A6">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
@@ -1447,14 +1447,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
@@ -1469,7 +1469,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9" ht="34" spans="1:7">
       <c r="A9">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
